--- a/web_app_4dk/modules/Шаблон заявок ИТС.xlsx
+++ b/web_app_4dk/modules/Шаблон заявок ИТС.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Максим\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Максим\Documents\GitHub\web_app_4dk\web_app_4dk\modules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38544AB5-6749-4074-ADB0-70E147741439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59135381-8AE0-418F-8F36-0B1571DAA7E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,9 +52,6 @@
     <t>e-Mail</t>
   </si>
   <si>
-    <t>goi@gk4dk.ru</t>
-  </si>
-  <si>
     <t>Заказать детальный отчет 1С:ИТС</t>
   </si>
   <si>
@@ -155,16 +152,25 @@
   </si>
   <si>
     <t>Рег.номер ПП, сданного в Upgrade</t>
+  </si>
+  <si>
+    <t>1c@gk4dk.ru</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -185,17 +191,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -501,7 +510,7 @@
   <dimension ref="A1:AH10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O41" sqref="O41"/>
+      <selection activeCell="E4" sqref="E4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,261 +547,261 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
+      <c r="H2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1" t="s">
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="J3" s="1" t="s">
+      <c r="H3" s="2"/>
+      <c r="J3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="1"/>
+      <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="J4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="J4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="1"/>
+      <c r="K4" s="2"/>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="2" t="s">
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-      <c r="AA8" s="1"/>
-      <c r="AB8" s="1"/>
-      <c r="AC8" s="1"/>
-      <c r="AD8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AE8" s="1"/>
-      <c r="AF8" s="1"/>
-      <c r="AG8" s="1"/>
-      <c r="AH8" s="1"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="2"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1" t="s">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="L9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="M9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="1" t="s">
+      <c r="O9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="P9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="P9" s="1" t="s">
+      <c r="Q9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="Q9" s="1" t="s">
+      <c r="R9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="R9" s="1" t="s">
+      <c r="S9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="S9" s="1" t="s">
+      <c r="T9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="T9" s="1" t="s">
+      <c r="U9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="U9" s="1" t="s">
+      <c r="V9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="V9" s="1" t="s">
+      <c r="W9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W9" s="1" t="s">
+      <c r="X9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="X9" s="1" t="s">
+      <c r="Y9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Y9" s="1" t="s">
+      <c r="Z9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="Z9" s="1" t="s">
+      <c r="AA9" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AA9" s="1" t="s">
+      <c r="AB9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AB9" s="1" t="s">
+      <c r="AC9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AC9" s="1" t="s">
+      <c r="AD9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AD9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE9" s="1"/>
-      <c r="AF9" s="1"/>
-      <c r="AG9" s="1"/>
-      <c r="AH9" s="1"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="2"/>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="1"/>
-      <c r="AB10" s="1"/>
-      <c r="AC10" s="1"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
       <c r="AD10">
         <v>1</v>
       </c>
@@ -806,36 +815,19 @@
         <v>4</v>
       </c>
       <c r="AH10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="47">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="A7:L7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="G8:W8"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="AC9:AC10"/>
+    <mergeCell ref="AD9:AH9"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="Z9:Z10"/>
+    <mergeCell ref="AA9:AA10"/>
+    <mergeCell ref="AB9:AB10"/>
     <mergeCell ref="X8:AC8"/>
     <mergeCell ref="AD8:AH8"/>
     <mergeCell ref="G9:G10"/>
@@ -852,14 +844,34 @@
     <mergeCell ref="R9:R10"/>
     <mergeCell ref="S9:S10"/>
     <mergeCell ref="T9:T10"/>
-    <mergeCell ref="AC9:AC10"/>
-    <mergeCell ref="AD9:AH9"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="Z9:Z10"/>
-    <mergeCell ref="AA9:AA10"/>
-    <mergeCell ref="AB9:AB10"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="G8:W8"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="J2:K2"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E4" r:id="rId1" xr:uid="{BF6F1B99-E1F8-4E85-AE3F-DA2FB67463CC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>